--- a/AnalisisEstadistico/Analisis_Maletas.xlsx
+++ b/AnalisisEstadistico/Analisis_Maletas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\SRA-master\SRA-master\AnalisisEstadistico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC69A9F-3E02-446B-BAD6-F9815CB16B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7016C-FE64-4245-B050-D5CF43DBAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>BagDropProcessTime (minutes)</t>
   </si>
@@ -114,7 +114,10 @@
     <t>Media:</t>
   </si>
   <si>
-    <t>Distribucion Estandar:</t>
+    <t>Varianza:</t>
+  </si>
+  <si>
+    <t>Desviacion Estandar:</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,8 +482,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -628,6 +637,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -682,15 +728,22 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,7 +945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BagDrop!$G$18:$G$31</c:f>
+              <c:f>BagDrop!$H$18:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -987,8 +1040,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2047,91 +2101,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6071"/>
+  <dimension ref="A1:L6071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="20.42578125" customWidth="1"/>
+    <col min="4" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <f>COUNT(A2:A6071)</f>
         <v>6070</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f>(E2/$E$2)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>+COUNT(A2:A2767)</f>
         <v>2766</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F4" si="0">(E3/$E$2)*100</f>
         <v>45.568369028006586</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <f>E2-E3</f>
         <v>3304</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>54.431630971993407</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -2143,7 +2201,7 @@
         <v>6070</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -2155,7 +2213,7 @@
         <v>2.2333333333333321</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -2167,7 +2225,7 @@
         <v>0.26666666666666639</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -2179,7 +2237,7 @@
         <v>1.9666666666666657</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -2189,12 +2247,12 @@
       <c r="E11" s="2">
         <v>14</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f>1+3.322*LOG10(E2)</f>
         <v>13.567752831752005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2204,17 +2262,17 @@
       <c r="E12" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f>E10/E11</f>
         <v>0.14047619047619039</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -2223,12 +2281,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2241,32 +2299,34 @@
       <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -2281,24 +2341,32 @@
         <f>+(D18+E18)/2</f>
         <v>0.33</v>
       </c>
-      <c r="G18" s="6" cm="1">
-        <f t="array" ref="G18:G31">+FREQUENCY(A2768:A6071,E18:E30)</f>
+      <c r="G18" s="7">
+        <f>+(F18-$I$35)^2</f>
+        <v>0.5754443878375467</v>
+      </c>
+      <c r="H18" s="6" cm="1">
+        <f t="array" ref="H18:H31">+FREQUENCY(A2768:A6071,E18:E30)</f>
         <v>68</v>
       </c>
-      <c r="H18" s="6">
-        <f>+G18</f>
+      <c r="I18" s="7">
+        <f>+G18*H18</f>
+        <v>39.130218372953173</v>
+      </c>
+      <c r="J18" s="6">
+        <f>+H18</f>
         <v>68</v>
       </c>
-      <c r="I18" s="7">
-        <f>+G18/$G$32</f>
+      <c r="K18" s="7">
+        <f>+H18/$H$32</f>
         <v>2.0581113801452784E-2</v>
       </c>
-      <c r="J18" s="7">
-        <f>+I18</f>
+      <c r="L18" s="7">
+        <f>+K18</f>
         <v>2.0581113801452784E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2314,23 +2382,31 @@
         <f t="shared" ref="F19:F31" si="2">+(D19+E19)/2</f>
         <v>0.48000000000000004</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:G31" si="3">+(F19-$I$35)^2</f>
+        <v>0.37037023529517388</v>
+      </c>
+      <c r="H19" s="6">
         <v>217</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" ref="H19:H30" si="3">+H18+G19</f>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19:I31" si="4">+G19*H19</f>
+        <v>80.370341059052734</v>
+      </c>
+      <c r="J19" s="6">
+        <f>+J18+H19</f>
         <v>285</v>
       </c>
-      <c r="I19" s="7">
-        <f t="shared" ref="I19:I31" si="4">+G19/$G$32</f>
+      <c r="K19" s="7">
+        <f>+H19/$H$32</f>
         <v>6.5677966101694921E-2</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" ref="J19:J30" si="5">+J18+I19</f>
+      <c r="L19" s="7">
+        <f t="shared" ref="L19:L30" si="5">+L18+K19</f>
         <v>8.6259079903147712E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2346,23 +2422,31 @@
         <f t="shared" si="2"/>
         <v>0.63000000000000012</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.21029608275280087</v>
+      </c>
+      <c r="H20" s="6">
         <v>362</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>647</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
+        <v>76.127181956513923</v>
+      </c>
+      <c r="J20" s="6">
+        <f>+J19+H20</f>
+        <v>647</v>
+      </c>
+      <c r="K20" s="7">
+        <f>+H20/$H$32</f>
         <v>0.10956416464891042</v>
       </c>
-      <c r="J20" s="7">
+      <c r="L20" s="7">
         <f t="shared" si="5"/>
         <v>0.19582324455205813</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2378,23 +2462,31 @@
         <f t="shared" si="2"/>
         <v>0.78</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
+        <f t="shared" si="3"/>
+        <v>9.522193021042806E-2</v>
+      </c>
+      <c r="H21" s="6">
         <v>501</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="3"/>
-        <v>1148</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
+        <v>47.706187035424456</v>
+      </c>
+      <c r="J21" s="6">
+        <f>+J20+H21</f>
+        <v>1148</v>
+      </c>
+      <c r="K21" s="7">
+        <f>+H21/$H$32</f>
         <v>0.15163438256658596</v>
       </c>
-      <c r="J21" s="7">
+      <c r="L21" s="7">
         <f t="shared" si="5"/>
         <v>0.34745762711864409</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2410,23 +2502,31 @@
         <f t="shared" si="2"/>
         <v>0.93</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5147777668055159E-2</v>
+      </c>
+      <c r="H22" s="6">
         <v>452</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="3"/>
-        <v>1600</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
+        <v>11.366795505960932</v>
+      </c>
+      <c r="J22" s="6">
+        <f>+J21+H22</f>
+        <v>1600</v>
+      </c>
+      <c r="K22" s="7">
+        <f>+H22/$H$32</f>
         <v>0.1368038740920097</v>
       </c>
-      <c r="J22" s="7">
+      <c r="L22" s="7">
         <f t="shared" si="5"/>
         <v>0.48426150121065381</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2442,23 +2542,31 @@
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
+        <f t="shared" si="3"/>
+        <v>7.3625125682274918E-5</v>
+      </c>
+      <c r="H23" s="6">
         <v>375</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="3"/>
-        <v>1975</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="4"/>
+        <v>2.7609422130853094E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <f>+J22+H23</f>
+        <v>1975</v>
+      </c>
+      <c r="K23" s="7">
+        <f>+H23/$H$32</f>
         <v>0.11349878934624698</v>
       </c>
-      <c r="J23" s="7">
+      <c r="L23" s="7">
         <f t="shared" si="5"/>
         <v>0.59776029055690083</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2474,23 +2582,31 @@
         <f t="shared" si="2"/>
         <v>1.23</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
+        <f t="shared" si="3"/>
+        <v>1.9999472583309374E-2</v>
+      </c>
+      <c r="H24" s="6">
         <v>342</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>2317</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
+        <v>6.8398196234918061</v>
+      </c>
+      <c r="J24" s="6">
+        <f>+J23+H24</f>
+        <v>2317</v>
+      </c>
+      <c r="K24" s="7">
+        <f>+H24/$H$32</f>
         <v>0.10351089588377724</v>
       </c>
-      <c r="J24" s="7">
+      <c r="L24" s="7">
         <f t="shared" si="5"/>
         <v>0.7012711864406781</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2506,23 +2622,31 @@
         <f t="shared" si="2"/>
         <v>1.38</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
+        <f t="shared" si="3"/>
+        <v>8.492532004093642E-2</v>
+      </c>
+      <c r="H25" s="6">
         <v>301</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="3"/>
-        <v>2618</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
+        <v>25.562521332321861</v>
+      </c>
+      <c r="J25" s="6">
+        <f>+J24+H25</f>
+        <v>2618</v>
+      </c>
+      <c r="K25" s="7">
+        <f>+H25/$H$32</f>
         <v>9.110169491525423E-2</v>
       </c>
-      <c r="J25" s="7">
+      <c r="L25" s="7">
         <f t="shared" si="5"/>
         <v>0.79237288135593231</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2538,23 +2662,31 @@
         <f t="shared" si="2"/>
         <v>1.5299999999999998</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1948511674985634</v>
+      </c>
+      <c r="H26" s="6">
         <v>230</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>2848</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
+        <v>44.815768524669586</v>
+      </c>
+      <c r="J26" s="6">
+        <f>+J25+H26</f>
+        <v>2848</v>
+      </c>
+      <c r="K26" s="7">
+        <f>+H26/$H$32</f>
         <v>6.9612590799031482E-2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="L26" s="7">
         <f t="shared" si="5"/>
         <v>0.86198547215496379</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2570,23 +2702,31 @@
         <f t="shared" si="2"/>
         <v>1.6799999999999997</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.34977701495619035</v>
+      </c>
+      <c r="H27" s="6">
         <v>184</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>3032</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
+        <v>64.358970751939026</v>
+      </c>
+      <c r="J27" s="6">
+        <f>+J26+H27</f>
+        <v>3032</v>
+      </c>
+      <c r="K27" s="7">
+        <f>+H27/$H$32</f>
         <v>5.569007263922518E-2</v>
       </c>
-      <c r="J27" s="7">
+      <c r="L27" s="7">
         <f t="shared" si="5"/>
         <v>0.917675544794189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2602,23 +2742,31 @@
         <f t="shared" si="2"/>
         <v>1.8299999999999996</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
+        <f t="shared" si="3"/>
+        <v>0.54970286241381727</v>
+      </c>
+      <c r="H28" s="6">
         <v>123</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="3"/>
-        <v>3155</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
+        <v>67.61345207689952</v>
+      </c>
+      <c r="J28" s="6">
+        <f>+J27+H28</f>
+        <v>3155</v>
+      </c>
+      <c r="K28" s="7">
+        <f>+H28/$H$32</f>
         <v>3.7227602905569007E-2</v>
       </c>
-      <c r="J28" s="7">
+      <c r="L28" s="7">
         <f t="shared" si="5"/>
         <v>0.95490314769975804</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2634,23 +2782,31 @@
         <f t="shared" si="2"/>
         <v>1.9799999999999995</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.79462870987144407</v>
+      </c>
+      <c r="H29" s="6">
         <v>94</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="3"/>
-        <v>3249</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
+        <v>74.695098727915749</v>
+      </c>
+      <c r="J29" s="6">
+        <f>+J28+H29</f>
+        <v>3249</v>
+      </c>
+      <c r="K29" s="7">
+        <f>+H29/$H$32</f>
         <v>2.8450363196125907E-2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="L29" s="7">
         <f t="shared" si="5"/>
         <v>0.98335351089588396</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2666,23 +2822,31 @@
         <f t="shared" si="2"/>
         <v>2.129999999999999</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="7">
+        <f t="shared" si="3"/>
+        <v>1.08455455732907</v>
+      </c>
+      <c r="H30" s="6">
         <v>52</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="3"/>
-        <v>3301</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
+        <v>56.39683698111164</v>
+      </c>
+      <c r="J30" s="6">
+        <f>+J29+H30</f>
+        <v>3301</v>
+      </c>
+      <c r="K30" s="7">
+        <f>+H30/$H$32</f>
         <v>1.5738498789346248E-2</v>
       </c>
-      <c r="J30" s="7">
+      <c r="L30" s="7">
         <f t="shared" si="5"/>
         <v>0.99909200968523026</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2698,41 +2862,54 @@
         <f t="shared" si="2"/>
         <v>2.2799999999999994</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4194804047866976</v>
+      </c>
+      <c r="H31" s="6">
         <v>3</v>
-      </c>
-      <c r="H31" s="6">
-        <f>+H30+G31</f>
-        <v>3304</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
+        <v>4.2584412143600927</v>
+      </c>
+      <c r="J31" s="6">
+        <f>+J30+H31</f>
+        <v>3304</v>
+      </c>
+      <c r="K31" s="7">
+        <f>+H31/$H$32</f>
         <v>9.0799031476997583E-4</v>
       </c>
-      <c r="J31" s="7">
-        <f>+J30+I31</f>
+      <c r="L31" s="7">
+        <f>+L30+K31</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9">
-        <f>SUM(_xlfn.ANCHORARRAY(G18))</f>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13">
+        <f>SUM(_xlfn.ANCHORARRAY(H18))</f>
         <v>3304</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9">
+      <c r="I32" s="14">
         <f>SUM(I18:I31)</f>
+        <v>599.26924258474537</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13">
+        <f>SUM(K18:K31)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2748,29 +2925,36 @@
       <c r="A35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="6">
-        <f>AVERAGE(_xlfn.ANCHORARRAY(G18))</f>
-        <v>236</v>
+        <f>(F18*H18+F19*H19+F20*H20+F21*H21+F22*H22+F23*H23+F24*H24+F25*H25+F26*H26+F27*H27+F28*H28+F29*H29+F30*H30+F31*H31)/H32</f>
+        <v>1.0885805084745763</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I36" s="6">
-        <f>STDEV(_xlfn.ANCHORARRAY(G18))</f>
-        <v>156.87868904641917</v>
+        <f>+I32/(H32-1)</f>
+        <v>0.18143180217521809</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="6">
+        <f>SQRT(I36)</f>
+        <v>0.42594812145990041</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -32953,11 +33137,11 @@
     <mergeCell ref="D32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E3 E8:E9" formulaRange="1"/>
-    <ignoredError sqref="I18 I19:I31" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32971,6 +33155,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD637B457F282D42972A425B55D4D803" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27cf96a2d422431702b9e6755c63b106">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9675426-1f15-4d94-9594-9a789ad30f9e" xmlns:ns3="3df6117c-a412-4ef6-a058-afdad4ce2251" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1acc50f7bc77c382d450934baf84d07" ns2:_="" ns3:_="">
     <xsd:import namespace="a9675426-1f15-4d94-9594-9a789ad30f9e"/>
@@ -33187,12 +33377,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D44C072F-0B01-466C-99A6-F60E35B9B3D8}">
   <ds:schemaRefs>
@@ -33202,6 +33386,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DE4FFC-F388-4BC7-A512-2D31A34C1095}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8474811d-2403-4c53-b191-8c47e5057690"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E5CA59-EF2F-4FFB-888C-29960E956F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33218,20 +33418,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DE4FFC-F388-4BC7-A512-2D31A34C1095}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8474811d-2403-4c53-b191-8c47e5057690"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AnalisisEstadistico/Analisis_Maletas.xlsx
+++ b/AnalisisEstadistico/Analisis_Maletas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\SRA-master\SRA-master\AnalisisEstadistico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C7016C-FE64-4245-B050-D5CF43DBAB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6627D9F-84E3-40AF-ACAB-BC371E1518AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -489,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -637,43 +637,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -719,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -733,17 +696,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2103,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,26 +2847,26 @@
       <c r="A32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14">
         <f>SUM(_xlfn.ANCHORARRAY(H18))</f>
         <v>3304</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="15">
         <f>SUM(I18:I31)</f>
         <v>599.26924258474537</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14">
         <f>SUM(K18:K31)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="L32" s="13"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
